--- a/Supplementary/Supplementary_file_5.xlsx
+++ b/Supplementary/Supplementary_file_5.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kostaskons94/MBG/PROJECTS/ZWA2/RESULTS/PAPER/ORIGINAL/ZWA2_COMPANION/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kostaskons94/MBG/PROJECTS/ZWA2/RESULTS/PAPER/SUBMISSIONS/Bioinformatics/ViRAE_COMPANION/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9FAD2D6-EF01-5740-98D0-C1E4A478EE4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5306ED71-8A95-B342-979D-C24CFABE2E64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16080" xr2:uid="{580293EB-C76B-7D45-B0DE-915259477B67}"/>
   </bookViews>
@@ -987,9 +987,6 @@
     <t>SORTMERNA method</t>
   </si>
   <si>
-    <t>ZWA2 method</t>
-  </si>
-  <si>
     <t>NGS
 Layout</t>
   </si>
@@ -1026,6 +1023,9 @@
   <si>
     <t>Max query
 covbases (%)</t>
+  </si>
+  <si>
+    <t>ViRAE method</t>
   </si>
 </sst>
 </file>
@@ -1504,7 +1504,7 @@
       <pane xSplit="4" ySplit="2" topLeftCell="E35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N48" sqref="N48"/>
+      <selection pane="bottomRight" activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1543,49 +1543,49 @@
       </c>
       <c r="K1" s="17"/>
       <c r="L1" s="18" t="s">
-        <v>320</v>
+        <v>331</v>
       </c>
       <c r="M1" s="18"/>
     </row>
     <row r="2" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>324</v>
-      </c>
       <c r="E2" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="F2" s="13" t="s">
         <v>329</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="G2" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>331</v>
-      </c>
       <c r="H2" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>331</v>
-      </c>
       <c r="J2" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="K2" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="K2" s="8" t="s">
-        <v>331</v>
-      </c>
       <c r="L2" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="M2" s="10" t="s">
         <v>330</v>
-      </c>
-      <c r="M2" s="10" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -3362,7 +3362,7 @@
         <v>49</v>
       </c>
       <c r="D46" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E46">
         <v>9711</v>
@@ -6604,7 +6604,7 @@
         <v>136</v>
       </c>
       <c r="D125" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E125">
         <v>15219</v>
@@ -6645,7 +6645,7 @@
         <v>137</v>
       </c>
       <c r="D126" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E126">
         <v>15263</v>
@@ -11729,7 +11729,7 @@
         <v>280</v>
       </c>
       <c r="D250" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E250">
         <v>7101</v>
@@ -12139,7 +12139,7 @@
         <v>297</v>
       </c>
       <c r="D260" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E260">
         <v>7053</v>
